--- a/数据整理/stocks/A股/上证主板/600765-中航重机.xlsx
+++ b/数据整理/stocks/A股/上证主板/600765-中航重机.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2873,4 +2874,1160 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6950</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0391</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9436</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8603</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7145</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6389</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6121</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4626</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3420</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2914</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>46.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600765-中航重机.xlsx
+++ b/数据整理/stocks/A股/上证主板/600765-中航重机.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4030,4 +4031,2262 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2798</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2824</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2387</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9042</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8140</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>43.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7979</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7032</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5608</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5587</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4255</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4106</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4061</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4006</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3992</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3942</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3915</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3230</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2908</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>68.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600765-中航重机.xlsx
+++ b/数据整理/stocks/A股/上证主板/600765-中航重机.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6289,4 +6290,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600765-中航重机.xlsx
+++ b/数据整理/stocks/A股/上证主板/600765-中航重机.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6298,7 +6299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6309,17 +6310,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6329,14 +6350,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>58</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.99</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7650</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -6345,14 +6388,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.28</v>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4720</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6361,14 +6426,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.68</v>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9153</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -6377,13 +6464,5847 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0563</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9439</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>53.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8033</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6270</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3409</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9958</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8598</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8301</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8198</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7496</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7396</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7279</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6907</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6683</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6346</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6304</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5886</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5823</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5472</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4883</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4381</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4273</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4045</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3782</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>34.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3644</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3371</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2991</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>19.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2811</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>70.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>69.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003828</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏华兴惠定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>42.37</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008058</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010373</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>西部利得聚兴一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>002232</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华夏新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>000688</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>景顺长城研究精选股票</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002231</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华夏新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010374</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>西部利得聚兴一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008059</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005405</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>005406</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>154</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>40</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600765-中航重机.xlsx
+++ b/数据整理/stocks/A股/上证主板/600765-中航重机.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12203,7 +12204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12214,17 +12215,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12234,14 +12255,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>154</v>
-      </c>
-      <c r="D2" t="n">
-        <v>49.38</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0366</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -12250,14 +12293,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>58</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.99</v>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1820</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -12266,14 +12331,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.28</v>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>171.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7871</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -12282,14 +12369,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.68</v>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4411</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -12298,13 +12407,6587 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>110.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9486</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6423</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0587</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8478</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7665</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7122</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5429</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>47.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4899</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4576</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4028</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2728</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1362</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0953</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>60.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0666</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0247</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9700</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9378</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8689</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8204</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>41.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7744</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7611</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7582</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7213</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>32.59</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7202</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7110</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6935</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6776</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6332</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6222</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6217</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6201</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6198</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013534</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>56.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6058</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15.59</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5924</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5842</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>19.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5507</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>18.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5285</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5284</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4337</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4291</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4291</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4186</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4146</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4067</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3987</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3512</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3352</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3183</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2901</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.36</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2879</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2848</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2680</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>72.05</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>62.31</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>60.06</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>76.48</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>56.32</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>008119</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>鹏华金享混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>003828</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>鹏华兴惠定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>008058</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>013535</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>56.32</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>73.88</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>008059</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>174</v>
+      </c>
+      <c r="D2" t="n">
+        <v>74.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>154</v>
+      </c>
+      <c r="D3" t="n">
+        <v>49.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>40</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600765-中航重机.xlsx
+++ b/数据整理/stocks/A股/上证主板/600765-中航重机.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18870,7 +18871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18881,17 +18882,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18901,14 +18922,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>174</v>
-      </c>
-      <c r="D2" t="n">
-        <v>74.12</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0997</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -18917,14 +18960,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>154</v>
-      </c>
-      <c r="D3" t="n">
-        <v>49.38</v>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.5264</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -18933,14 +18998,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>58</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.99</v>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -18949,14 +19036,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.28</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>118.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2505</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -18965,14 +19074,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>21</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.68</v>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>106.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8395</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -18981,13 +19112,7127 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5125</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1060</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>46.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0418</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0357</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9040</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7294</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7161</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4492</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2604</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2458</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1296</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0426</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0346</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0096</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9718</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9305</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>32.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8904</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8869</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8311</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8176</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8151</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7745</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011820</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6959</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6888</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6519</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6382</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5739</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5539</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5515</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5478</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4621</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3810</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3577</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3563</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3519</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3460</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3454</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3208</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3191</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2907</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2836</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2071</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013355</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银新金融股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010881</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方宝顺混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>37.10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011064</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>75.25</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>51.60</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014756</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏华成长领航两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>67.09</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>014333</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>工银优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011065</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>014112</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>014334</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>工银优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>013025</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>014649</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>014757</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>鹏华成长领航两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010882</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>南方宝顺混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>014948</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>014650</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>015077</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>189</v>
+      </c>
+      <c r="D2" t="n">
+        <v>70.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>174</v>
+      </c>
+      <c r="D3" t="n">
+        <v>74.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>154</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>58</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>40</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600765-中航重机.xlsx
+++ b/数据整理/stocks/A股/上证主板/600765-中航重机.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="D2" t="n">
-        <v>70.37</v>
+        <v>87.48999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D3" t="n">
-        <v>74.12</v>
+        <v>70.37</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D4" t="n">
-        <v>49.38</v>
+        <v>74.12</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="D5" t="n">
-        <v>21.99</v>
+        <v>49.38</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D6" t="n">
-        <v>11.28</v>
+        <v>21.99</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>3.68</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>40</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8.9</v>
       </c>
     </row>
@@ -600,6 +617,9014 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H237"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5899</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>匯添富價值精選混合型證券投資基金 O</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>128.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.8746</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519069</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>128.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.8746</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0805</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>52.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.5393</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.2023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>105.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.9032</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时主题行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>67.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3361</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3228</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.2831</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.2358</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银新金融股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>44.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.0418</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>41.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8938</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>40.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8207</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>40.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5663</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009550</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5533</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5371</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>60.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3598</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3260</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3072</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>33.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1440</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9312</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8792</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8623</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8440</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001538</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>34.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7760</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7754</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7724</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013534</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7315</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7211</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012119</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7104</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011820</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6951</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6904</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6514</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>19.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6425</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6359</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华启航混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6063</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5948</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5417</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5290</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5160</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>69.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5087</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006259</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5067</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>202105</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方广利回报债券- A/B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>51.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4957</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4922</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012844</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信恒兴6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4763</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012785</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4112</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009998</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上投摩根慧见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>17.54</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3543</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3530</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012500</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时汇荣回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>59.93</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3310</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3306</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009551</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008314</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3162</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3158</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3153</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001126</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上投摩根卓越制造股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3063</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3057</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>70.34</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3033</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2811</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013341</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银核心机遇混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2758</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>54.97</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013355</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银新金融股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>26.68</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇添富研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>72.61</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>202107</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>南方广利回报债券- C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>工银聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012845</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>工银瑞信恒兴6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010881</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>南方宝顺混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华宝中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008315</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>上投摩根慧选成长股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>013342</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>工银核心机遇混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>54.97</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>67.69</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>60.55</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011064</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014756</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏华成长领航两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014792</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏华创新动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006260</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>012120</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>博时汇誉回报混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>65.43</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011746</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>013535</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>012904</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>上投摩根鑫睿优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001183</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>工银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>012786</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>012501</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>博时汇荣回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>59.93</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>008119</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>鹏华金享混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>22.67</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>012669</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>南方新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>002220</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>南方瑞利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>22.54</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>011065</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>70.34</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>012670</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>南方新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>012498</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>工银新增益混合</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>博时先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>010444</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>014659</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>金元顺安行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>37.56</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>009351</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>南方誉丰18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>60.91</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>001504</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>014660</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>金元顺安行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>37.56</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>博时汇誉回报混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>010445</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>003938</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>南方荣尊混合A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>博时先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>011747</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>014793</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>013368</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>013367</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>012499</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>014757</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>鹏华成长领航两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>010882</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>南方宝顺混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>012997</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>003939</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>南方荣尊混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>60.55</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>014964</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>009352</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>南方誉丰18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>015075</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>上投摩根卓越制造股票C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合B</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>016751</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>博时精选混合C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>015152</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>015057</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合C</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>015077</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7827,7 +16852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14493,7 +23518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20397,7 +29422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22655,7 +31680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23811,7 +32836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24665,7 +33690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
